--- a/save/[SAE] result.xlsx
+++ b/save/[SAE] result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>keys</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>alpha=0.9, eps=1e-10</t>
+  </si>
+  <si>
+    <t>decay_r</t>
   </si>
   <si>
     <t>lr</t>
@@ -522,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,7 +642,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -647,6 +650,14 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -661,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,19 +682,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -691,16 +702,1699 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4557922307345566</v>
+        <v>0.4707</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05619716632932492</v>
+        <v>5.68</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05681587852887605</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1718759302256355</v>
+        <v>15.59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3849</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="E3" t="n">
+        <v>31.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0433</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2646</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0429</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2173</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0413</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1779</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0405</v>
+      </c>
+      <c r="E7" t="n">
+        <v>45.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1471</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0404</v>
+      </c>
+      <c r="E8" t="n">
+        <v>42.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1238</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0402</v>
+      </c>
+      <c r="E9" t="n">
+        <v>41.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1056</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="E10" t="n">
+        <v>44.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0916</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0385</v>
+      </c>
+      <c r="E11" t="n">
+        <v>43.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C12" t="n">
+        <v>24.12</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0376</v>
+      </c>
+      <c r="E12" t="n">
+        <v>44.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0717</v>
+      </c>
+      <c r="C13" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="E13" t="n">
+        <v>44.57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="C14" t="n">
+        <v>32.98</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0358</v>
+      </c>
+      <c r="E14" t="n">
+        <v>44.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0583</v>
+      </c>
+      <c r="C15" t="n">
+        <v>36.67</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0347</v>
+      </c>
+      <c r="E15" t="n">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0539</v>
+      </c>
+      <c r="C16" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="E16" t="n">
+        <v>47.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0499</v>
+      </c>
+      <c r="C17" t="n">
+        <v>42.61</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0333</v>
+      </c>
+      <c r="E17" t="n">
+        <v>48.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0464</v>
+      </c>
+      <c r="C18" t="n">
+        <v>45.51</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0327</v>
+      </c>
+      <c r="E18" t="n">
+        <v>51.91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0437</v>
+      </c>
+      <c r="C19" t="n">
+        <v>47.76</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0322</v>
+      </c>
+      <c r="E19" t="n">
+        <v>51.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0412</v>
+      </c>
+      <c r="C20" t="n">
+        <v>50.45</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0309</v>
+      </c>
+      <c r="E20" t="n">
+        <v>58.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0389</v>
+      </c>
+      <c r="C21" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0293</v>
+      </c>
+      <c r="E21" t="n">
+        <v>60.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0369</v>
+      </c>
+      <c r="C22" t="n">
+        <v>57.26</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0274</v>
+      </c>
+      <c r="E22" t="n">
+        <v>65.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0344</v>
+      </c>
+      <c r="C23" t="n">
+        <v>61.66</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E23" t="n">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0321</v>
+      </c>
+      <c r="C24" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0224</v>
+      </c>
+      <c r="E24" t="n">
+        <v>71.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0303</v>
+      </c>
+      <c r="C25" t="n">
+        <v>69.44</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E25" t="n">
+        <v>79.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0282</v>
+      </c>
+      <c r="C26" t="n">
+        <v>74.20999999999999</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0191</v>
+      </c>
+      <c r="E26" t="n">
+        <v>77.70999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0262</v>
+      </c>
+      <c r="C27" t="n">
+        <v>76.84999999999999</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0183</v>
+      </c>
+      <c r="E27" t="n">
+        <v>84.47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0247</v>
+      </c>
+      <c r="C28" t="n">
+        <v>79.43000000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="E28" t="n">
+        <v>88.73999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="C29" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="E29" t="n">
+        <v>90.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="C30" t="n">
+        <v>84.55</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="E30" t="n">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="C31" t="n">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="E31" t="n">
+        <v>91.73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="C32" t="n">
+        <v>89.20999999999999</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="E32" t="n">
+        <v>91.90000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0184</v>
+      </c>
+      <c r="C33" t="n">
+        <v>90.65000000000001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="E33" t="n">
+        <v>94.48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="C34" t="n">
+        <v>91.75</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="E34" t="n">
+        <v>94.39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="C35" t="n">
+        <v>92.25</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="E35" t="n">
+        <v>94.58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="C36" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E36" t="n">
+        <v>94.67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="C37" t="n">
+        <v>92.83</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0129</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.73999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0152</v>
+      </c>
+      <c r="C38" t="n">
+        <v>93.95999999999999</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="E38" t="n">
+        <v>95.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="C39" t="n">
+        <v>94.19</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="E39" t="n">
+        <v>94.69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="C40" t="n">
+        <v>94.36</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0122</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="C41" t="n">
+        <v>95.25</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0124</v>
+      </c>
+      <c r="E41" t="n">
+        <v>94.90000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="C42" t="n">
+        <v>95.48</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0124</v>
+      </c>
+      <c r="E42" t="n">
+        <v>93.01000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="C43" t="n">
+        <v>95.38</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0122</v>
+      </c>
+      <c r="E43" t="n">
+        <v>95.14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C44" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.0121</v>
+      </c>
+      <c r="E44" t="n">
+        <v>93.84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.0127</v>
+      </c>
+      <c r="C45" t="n">
+        <v>95.81999999999999</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E45" t="n">
+        <v>94.56999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="C46" t="n">
+        <v>95.98</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="E46" t="n">
+        <v>95.41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="C47" t="n">
+        <v>96.23</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="E47" t="n">
+        <v>93.84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0122</v>
+      </c>
+      <c r="C48" t="n">
+        <v>96.06999999999999</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="E48" t="n">
+        <v>93.41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="C49" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="E49" t="n">
+        <v>93.84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="C50" t="n">
+        <v>96.62</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0117</v>
+      </c>
+      <c r="E50" t="n">
+        <v>93.61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="C51" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="E51" t="n">
+        <v>92.84999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="C52" t="n">
+        <v>96.73</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="E52" t="n">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="C53" t="n">
+        <v>96.63</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.0117</v>
+      </c>
+      <c r="E53" t="n">
+        <v>93.17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="C54" t="n">
+        <v>96.94</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="E54" t="n">
+        <v>94.48999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="C55" t="n">
+        <v>97.17</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="E55" t="n">
+        <v>94.42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="C56" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="E56" t="n">
+        <v>94.31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="C57" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="E57" t="n">
+        <v>93.36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="C58" t="n">
+        <v>97.34</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="E58" t="n">
+        <v>92.52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="C59" t="n">
+        <v>97.48999999999999</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0117</v>
+      </c>
+      <c r="E59" t="n">
+        <v>91.62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="C60" t="n">
+        <v>97.12</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="E60" t="n">
+        <v>94.11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="C61" t="n">
+        <v>97.31</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="E61" t="n">
+        <v>93.31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="C62" t="n">
+        <v>97.69</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="E62" t="n">
+        <v>93.15000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="C63" t="n">
+        <v>97.73999999999999</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="E63" t="n">
+        <v>93.70999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="C64" t="n">
+        <v>97.70999999999999</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="E64" t="n">
+        <v>92.04000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="C65" t="n">
+        <v>97.62</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="E65" t="n">
+        <v>92.92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C66" t="n">
+        <v>97.63</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="E66" t="n">
+        <v>92.73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C67" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="E67" t="n">
+        <v>92.73999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="C68" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="E68" t="n">
+        <v>92.22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="C69" t="n">
+        <v>97.95</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="E69" t="n">
+        <v>94.73999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="C70" t="n">
+        <v>98.08</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="E70" t="n">
+        <v>91.81999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="C71" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="E71" t="n">
+        <v>92.87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="C72" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="E72" t="n">
+        <v>93.93000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="C73" t="n">
+        <v>98.31999999999999</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0113</v>
+      </c>
+      <c r="E73" t="n">
+        <v>92.45999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="C74" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="E74" t="n">
+        <v>93.02</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="C75" t="n">
+        <v>98.31999999999999</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E75" t="n">
+        <v>94.05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="C76" t="n">
+        <v>98.29000000000001</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="E76" t="n">
+        <v>94.55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="C77" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="E77" t="n">
+        <v>92.84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0091</v>
+      </c>
+      <c r="C78" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="E78" t="n">
+        <v>94.31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E79" t="n">
+        <v>93.14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0091</v>
+      </c>
+      <c r="C80" t="n">
+        <v>98.38</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E80" t="n">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="C81" t="n">
+        <v>98.33</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="E81" t="n">
+        <v>94.42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0089</v>
+      </c>
+      <c r="C82" t="n">
+        <v>98.34999999999999</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="E82" t="n">
+        <v>92.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="C83" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="E83" t="n">
+        <v>92.48999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0089</v>
+      </c>
+      <c r="C84" t="n">
+        <v>98.36</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="E84" t="n">
+        <v>94.31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="C85" t="n">
+        <v>98.69</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="E85" t="n">
+        <v>92.39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="C86" t="n">
+        <v>98.56999999999999</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="E86" t="n">
+        <v>93.23999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="C87" t="n">
+        <v>98.65000000000001</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="E87" t="n">
+        <v>94.45999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="C88" t="n">
+        <v>98.55</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="E88" t="n">
+        <v>94.02</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="C89" t="n">
+        <v>98.76000000000001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="E89" t="n">
+        <v>93.15000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="C90" t="n">
+        <v>98.75</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E90" t="n">
+        <v>92.37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="C91" t="n">
+        <v>98.64</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="E91" t="n">
+        <v>93.09</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="C92" t="n">
+        <v>98.81</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="E92" t="n">
+        <v>93.16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.008399999999999999</v>
+      </c>
+      <c r="C93" t="n">
+        <v>98.84999999999999</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="E93" t="n">
+        <v>92.36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="C94" t="n">
+        <v>98.62</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="E94" t="n">
+        <v>93.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="C95" t="n">
+        <v>98.65000000000001</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="E95" t="n">
+        <v>93.39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="C96" t="n">
+        <v>98.81</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="E96" t="n">
+        <v>94.45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="C97" t="n">
+        <v>98.77</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="E97" t="n">
+        <v>94.37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="C98" t="n">
+        <v>98.84999999999999</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E98" t="n">
+        <v>93.34999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="C99" t="n">
+        <v>99.04000000000001</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="E99" t="n">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="C100" t="n">
+        <v>99.01000000000001</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="E100" t="n">
+        <v>92.95999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="C101" t="n">
+        <v>98.87</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="E101" t="n">
+        <v>93.11</v>
       </c>
     </row>
   </sheetData>
@@ -724,220 +2418,220 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2875</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>78</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>30</v>
       </c>
-      <c r="B2" t="n">
-        <v>70</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>24</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>58</v>
       </c>
-      <c r="J2" t="n">
-        <v>6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>297</v>
-      </c>
-      <c r="M2" t="n">
-        <v>33</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>17</v>
-      </c>
       <c r="P2" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>761</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>761</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="J4" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -946,87 +2640,87 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>480</v>
+        <v>761</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1034,146 +2728,146 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>556</v>
+        <v>761</v>
       </c>
       <c r="G6" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1182,122 +2876,122 @@
         <v>761</v>
       </c>
       <c r="I8" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>712</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
-        <v>517</v>
-      </c>
-      <c r="E9" t="n">
-        <v>49</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>18</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>82</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5</v>
-      </c>
       <c r="M9" t="n">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>388</v>
+        <v>660</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1324,92 +3018,92 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>957</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>189</v>
+        <v>754</v>
       </c>
       <c r="L11" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1421,25 +3115,25 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>54</v>
+        <v>751</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1448,95 +3142,95 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>9</v>
+        <v>698</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1548,184 +3242,184 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="O14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" t="n">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>22</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>697</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>36</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>11</v>
-      </c>
-      <c r="M15" t="n">
-        <v>28</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>10</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>11</v>
-      </c>
-      <c r="T15" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>48</v>
+        <v>761</v>
       </c>
       <c r="Q16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1734,22 +3428,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1758,42 +3452,42 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="R17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="n">
-        <v>514</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1802,57 +3496,57 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>248</v>
+        <v>733</v>
       </c>
       <c r="S18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1864,48 +3558,48 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>50</v>
+        <v>721</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1914,72 +3608,72 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02258793159083575</v>
+        <v>92.77</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03153745072273324</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1988,134 +3682,134 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07621550591327202</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.007884362680683311</v>
+        <v>10.25</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3902759526938239</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04336399474375821</v>
+        <v>3.94</v>
       </c>
       <c r="N21" t="n">
-        <v>0.006570302233902759</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02233902759526938</v>
+        <v>7.62</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1537450722733246</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01314060446780552</v>
+        <v>6.31</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01314060446780552</v>
+        <v>3.42</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01051248357424442</v>
+        <v>5.26</v>
       </c>
       <c r="T21" t="n">
-        <v>0.002628120893561104</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2404001290738948</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01182654402102497</v>
+        <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01051248357424442</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.007884362680683311</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3534822601839684</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1826544021024967</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04204993429697766</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.09329829172141918</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1077529566360053</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.06176084099868594</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1813403416557162</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1484888304862024</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06438896189224705</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.03810775295663601</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.05781865965834428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02420135527589545</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.006570302233902759</v>
+        <v>100</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.366622864651774</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1235216819973719</v>
+        <v>6.44</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02759526938239159</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2124,87 +3818,87 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0354796320630749</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.007884362680683311</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.007884362680683311</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
-        <v>0.007099064214262665</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6307490144546649</v>
+        <v>100</v>
       </c>
       <c r="F24" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09329829172141918</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01182654402102497</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.003942181340341655</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.003942181340341655</v>
+        <v>0.53</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005256241787122208</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03679369250985545</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1498028909329829</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.003942181340341655</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02365308804204994</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.01971090670170828</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01051248357424442</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2212,270 +3906,270 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04420780897063569</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01708278580814717</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1222076215505913</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.006570302233902759</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7306176084099869</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06964520367936924</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1550591327201051</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.07884362680683311</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2076215505913272</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.007884362680683311</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.05781865965834428</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.006570302233902759</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.5703022339027596</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.08147174770039421</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01708278580814717</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.003942181340341655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="n">
-        <v>0.005808325266214908</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.003942181340341655</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01576872536136662</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03153745072273324</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01051248357424442</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.009198423127463863</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.003942181340341655</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.005256241787122208</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.08541392904073587</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.2483574244415243</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.006570302233902759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01258470474346563</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1616294349540079</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.009198423127463863</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03810775295663601</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.05650459921156373</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.08935611038107753</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.08015768725361366</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0657030223390276</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.05124835742444152</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01445466491458607</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.06176084099868594</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.003942181340341655</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.009198423127463863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="n">
-        <v>0.004194901581155212</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003942181340341655</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6793692509855453</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06438896189224705</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02365308804204994</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01182654402102497</v>
+        <v>93.56</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1077529566360053</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.006570302233902759</v>
+        <v>0.39</v>
       </c>
       <c r="M28" t="n">
-        <v>0.08541392904073587</v>
+        <v>4.34</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01051248357424442</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.005256241787122208</v>
+        <v>0.39</v>
       </c>
       <c r="R28" t="n">
-        <v>0.006570302233902759</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.1064388961892247</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2996057818659658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="n">
-        <v>0.003872216844143272</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003942181340341655</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2487,10 +4181,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5098554533508541</v>
+        <v>86.73</v>
       </c>
       <c r="K29" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2502,92 +4196,92 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.006570302233902759</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.003942181340341655</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.03810775295663601</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1051248357424441</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3088092933204259</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8015768725361366</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.007884362680683311</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02365308804204994</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05519053876478318</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1208935611038108</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.06964520367936924</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2483574244415243</v>
+        <v>99.08</v>
       </c>
       <c r="L30" t="n">
-        <v>0.102496714848883</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1708278580814717</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1852825229960578</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0.4126149802890933</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.005256241787122208</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3140604467805519</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1537450722733246</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.05650459921156373</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.126149802890933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03839948370442078</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2599,25 +4293,25 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02233902759526938</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.07095926412614981</v>
+        <v>98.69</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2626,95 +4320,95 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.005256241787122208</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0328515111695138</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.03810775295663601</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.09329829172141918</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.005256241787122208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="n">
-        <v>0.005485640529202969</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.003942181340341655</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.003942181340341655</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.003942181340341655</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02102496714848883</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1695137976346912</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02496714848883048</v>
+        <v>0.92</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01182654402102497</v>
+        <v>91.72</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.007884362680683311</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.006570302233902759</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.005256241787122208</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0.02233902759526938</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.04599211563731932</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.005256241787122208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01613423685059697</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.005256241787122208</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2726,184 +4420,184 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02365308804204994</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.006570302233902759</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.006570302233902759</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.03416557161629435</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" t="n">
-        <v>0.01182654402102497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.01314060446780552</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0.03022339027595269</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.04730617608409987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02581477896095515</v>
+        <v>3.97</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04730617608409987</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.002628120893561104</v>
+        <v>2.89</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01445466491458607</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.03679369250985545</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.01314060446780552</v>
+        <v>91.59</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.005256241787122208</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.003942181340341655</v>
+        <v>0.26</v>
       </c>
       <c r="S34" t="n">
-        <v>0.01445466491458607</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.01051248357424442</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" t="n">
-        <v>0.021297192642788</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01708278580814717</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.08278580814717477</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02365308804204994</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1432325886990801</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0657030223390276</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.05124835742444152</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.6044678055190539</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0.04204993429697766</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0.06307490144546649</v>
+        <v>100</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.009198423127463863</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0.03022339027595269</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.03416557161629435</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.06438896189224705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" t="n">
-        <v>0.002581477896095515</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.009198423127463863</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.05387647831800263</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -2912,22 +4606,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0328515111695138</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.003942181340341655</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2936,42 +4630,42 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0.01182654402102497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>93.3</v>
       </c>
       <c r="R36" t="n">
-        <v>0.01708278580814717</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0.03416557161629435</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0.006570302233902759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1658599548241368</v>
+        <v>1.26</v>
       </c>
       <c r="C37" t="n">
-        <v>0.09855453350854139</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1340341655716163</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -2980,57 +4674,57 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02890932982917214</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.02759526938239159</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0735873850197109</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.007884362680683311</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1773981603153745</v>
+        <v>0.13</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.3679369250985545</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3258869908015768</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="S37" t="n">
-        <v>0.01576872536136662</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3390275952693824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" t="n">
-        <v>0.04420780897063569</v>
+        <v>0.03</v>
       </c>
       <c r="C38" t="n">
-        <v>0.04599211563731932</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.102496714848883</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04204993429697766</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3042,48 +4736,48 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1287779237844941</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.02890932982917214</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.003942181340341655</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01314060446780552</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2706964520367937</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0.02759526938239159</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0.1537450722733246</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.03022339027595269</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0.04467805519053877</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.0657030223390276</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="T38" t="n">
-        <v>0.009198423127463863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" t="n">
-        <v>0.006453694740238786</v>
+        <v>1.97</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3092,52 +4786,52 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.002628120893561104</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.007884362680683311</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.001314060446780552</v>
+        <v>0.13</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02890932982917214</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.01971090670170828</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0.02759526938239159</v>
+        <v>0.66</v>
       </c>
       <c r="P39" t="n">
-        <v>0.005256241787122208</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.001314060446780552</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.03022339027595269</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0683311432325887</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.001314060446780552</v>
+        <v>89.88</v>
       </c>
     </row>
   </sheetData>
@@ -3161,87 +4855,87 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02258793159083575</v>
+        <v>92.77</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2211271718499051</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01182654402102497</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04689448740334248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006570302233902759</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04714392616612621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6307490144546649</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0175230730855575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7306176084099869</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0127837365926665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04745572461960589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -3249,145 +4943,145 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01182654402102497</v>
+        <v>93.56</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04689448740334248</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5098554533508541</v>
+        <v>86.73</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02326016462958344</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2483574244415243</v>
+        <v>99.08</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03566974307807434</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07095926412614981</v>
+        <v>98.69</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04408830132202544</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01182654402102497</v>
+        <v>91.72</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04689448740334248</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04745572461960589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01314060446780552</v>
+        <v>91.59</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04683212771264655</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06307490144546649</v>
+        <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04446245946620105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>93.3</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04745572461960589</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3258869908015768</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03199052132701422</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0657030223390276</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04433774008480918</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="n">
-        <v>0.001314060446780552</v>
+        <v>89.88</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04739336492890995</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1718759302256355</v>
+        <v>95.75</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8281240697743645</v>
+        <v>4.25</v>
       </c>
     </row>
   </sheetData>
